--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ApiTestFrameWork-master\ApiTestFrameWork-master\conf\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A9435073-ED93-4C11-8B08-97C441C1B925}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7788" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>descrption</t>
   </si>
@@ -64,21 +58,32 @@
     <t>teardown_sql</t>
   </si>
   <si>
-    <t>访问百度</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>添加任务接口</t>
+  </si>
+  <si>
+    <t>http://m8cmp-sdpm8-gateway-tenant.tongfuyun-test.com/ccsyun/task</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"Accept":"application/json, text/plain, */*","Referer":"http://console.coo.tongfuyun-test.com/","Accept-Language":"zh-CN,zh;q=0.9","Origin":"http://console.coo.tongfuyun-test.com","Upgrade-Insecure-Requests":"1","Content-Type":"application/json; charset=UTF-8","M8-Menu-Id":"9994","User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36","M8-Application-Code":"COO_WORKBENCH"}</t>
+  </si>
+  <si>
+    <t>{"title":"rcp13o","assignto":"xiaofei02","milestone_id":321,"tasklvl":"level3","tasktype":"demand","project_id":647,"due_date":"2019-12-1","description":""}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +119,143 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,12 +264,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,47 +463,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -440,36 +1067,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.4444444444444" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1111111111111" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="16.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.21875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.22222222222222" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.2222222222222" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8888888888889" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="39" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,110 +1140,116 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="71" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="4"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="52.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" ht="55.05" customHeight="1" spans="8:8">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" ht="52.05" customHeight="1" spans="1:4">
+      <c r="A4" s="7"/>
       <c r="B4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="2:8">
       <c r="B5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:9">
+      <c r="A6" s="5"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="2:4">
       <c r="B7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" ht="60" customHeight="1" spans="1:4">
+      <c r="A8" s="5"/>
       <c r="B8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
       <c r="B9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" ht="60" customHeight="1" spans="1:4">
+      <c r="A10" s="5"/>
       <c r="B10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="1:4">
+      <c r="A11" s="5"/>
       <c r="B11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" ht="60" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
       <c r="B12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="60" customHeight="1" spans="1:4">
+      <c r="A13" s="5"/>
       <c r="B13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" ht="60" customHeight="1" spans="1:4">
+      <c r="A14" s="5"/>
       <c r="B14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="60" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
       <c r="B15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" ht="60" customHeight="1" spans="1:4">
+      <c r="A16" s="5"/>
       <c r="B16" s="3"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C4:C1048576">
+      <formula1>"POST,GET,UPLOAD"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
       <formula1>"mysql,redis"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://m8cmp-sdpm8-gateway-tenant.tongfuyun-test.com/ccsyun/task"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>descrption</t>
   </si>
@@ -40,9 +40,15 @@
     <t>file</t>
   </si>
   <si>
+    <t>verifytype</t>
+  </si>
+  <si>
     <t>verify</t>
   </si>
   <si>
+    <t>saves_headers</t>
+  </si>
+  <si>
     <t>saves</t>
   </si>
   <si>
@@ -58,19 +64,40 @@
     <t>teardown_sql</t>
   </si>
   <si>
+    <t>登录获取token</t>
+  </si>
+  <si>
+    <t>https://m8-cas-tenant-m8cmp-sdp.tongfuyun-test.com/cas/login?service=http%3A%2F%2Fconsole.coo.tongfuyun-test.com%2Fcas%2Fvalidate&amp;sn=/</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>{"Accept":"text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,image/apng,*/*;q=0.8","Referer":"https://m8-cas-tenant-m8cmp-sdp.tongfuyun-test.com/cas/login?service=http%3A%2F%2Fconsole.coo.tongfuyun-test.com%2Fcas%2Fvalidate&amp;sn=/","Accept-Language":"zh-CN,zh;q=0.9","Origin":"https://m8-cas-tenant-m8cmp-sdp.tongfuyun-test.com","Upgrade-Insecure-Requests":"1","Content-Type":"application/x-www-form-urlencoded","Cache-Control":"max-age=0","Accept-Encoding":"gzip, deflate, br","User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36"}</t>
+  </si>
+  <si>
+    <t>{"loginType":"","username":"xiaofei02","password":"13154eff38cce7aeccc729d817f2014b","verificationCode":"","execution":"b215435a-7a05-4af9-9b49-7ebd7ede77ed_ZXlKaGJHY2lPaUpJVXpVeE1pSjkuV00zWFJIaWxkUFZLcVNCbkJYUmFsTVU4ek5rMnRUOXowa1VoVnhGK0lQSnNGSXdYNlM4TDFNTHBBcytxOHQ0aG5JYWxjcDdkV1lOQWhQVW0vM2pBTmgwcVhWOGlmQmtsQjFYekpmZml0aU1XTHM1RmlZQWFsMFY4U2JTV1JaM3g4eklkc2lHd2RDSjR5bTR0eUVrZ0ZlUXZxRGFZcWdYSGI0amVYL0l0RkJzZVNmMVZiaGcwTk83bHNqUWczUk9YZ1k1THB6eERlb0lLTEJxcWtLQno3eUI4djEvSisxN1VPd2lDRXZPK1laQ1kzK1F3akhnWVdpRk5Zc0I2MStBRUoxbTlSeFRDOFNaazl0YlBKMGtuMCsweGxBZHo1UE5DTFpCQ09naU9TZHhGalJZcGtoanNiaFhuYnFvcFJQVEpOUkdxS25VTmg1ODRpNVRhcHRnRjBCQ0Nnb2wyLzQ1eXgzV3ppL1gyZHdTcnlUMFJvNlhCNE1hRUY4elBXSmVVQlJJanQyN0UxbjRTcHQwVWV1U1hZUDlqdG9zaUtsVzlPVTNMdUkzYm02eGlZa0Yvbzdrd1Y3S2dqZ3JmWkF2MVRvNEQ0dXBxUHdLb091QjluMGdsYWZWeTdYa1Nva1VmZ3JhL3haWU12RFA3VWhwYU1WVk5TeTEwUFNURWk3bUxPZGsrRTJpRzhzcmhjWlc4RmU4WndpVEtVanVjdU93WENXSUpZck8wYjgxZEZGdHpDT0VEY0JQU0U1MlZXWFFxbTNTUWlUTEZ1eEVqUjVkU2hsWG80NkhaaXJKeE9lZWIyVEhwdVBPUWs2MEYrRzk2ZUNKZXNaVkQvZUZ6UzFKdnU1aFI4OG1aNElyMGJUM3R6K0Rkd3E1WjVOdEFWS05Ic2ZHN0k3ZkdERjBYeGR1TnhmQ3l5Qk9ZRU9LZHZvNWszU3J4V05rUlY5MEJaVkFGMTlHbm1aM1BjbUNtd1c1RzdNVFZoZXVRWnVtVkdTcVBYK01wY0dzKzd0L2ZPeDFVRkN4aHN3dkZOeWUzeUt5QXduRnorQTNPRXZuNDJDVFJUYi82bjQ0L0o4SFJPT1dHb1dtYWg1VVhTeGhQK1EvNEtBQWw4RHQzM1M2U0d1MGl1MkkxR3MxL0wxRHFwWFRvSFZvKzVqY3hXTkZKZytzVmVqNTlyMzJTVnBPWVZPWkNjb2FreTJzTGVoVVFjOUlicjBsTWp0NmpKWlpNK2s0aWhYalMvWWFMYWpBY3dOd1BxYThFNFZKcW1YS010SEZ4WDlVV1F3OUI3RHM0WG9sT3htWFMwV3N3cTVYK1loaXZrYVcxL1NhWllkWWxMNVhEb2lkN2J0TWJqLzBBdDBJQlY3S2JDNndxbUcvcXJDK2hPZWRkTzFOUXlDbWpwNjNvUkhrQ1lKNFV0RzhvS0FwV3ZQSWgwd3plZTR2eTFwRklEazVoYkl0ZzZFN0hDREw5MUVoMm42MlZQeTNiL0pBOVd5aStNWCs3YTFDNkRzN2Y0V2JZZTRteVpmc3A1NXhEd2VYNjNnTUthR2FWZ1o2TmZrelRzNnNZdG5VcklZR2dxUUxKa255MkY4TVhQeWdUSUtXdVo3dk9heitJWGN4Z2lZQzZ1MDI4MWtDeVNvelUydUVUUmdQUDFBa2t2cGZxSXJMSDZRZDRVSjVaUlkzRnYvOEw2ejlrVUVsOFhmQjhuTWRUMzIxNll6YzJVaEVGeWFubE00TGt5elhORXBKT3pIeEZZSGx5YTkxSEVOK2lwc1pDOTlEWkdURFZXVklWT3dMbDNoeHRRTDM0SFA3TjJtNkJ3Mis1N2h0enhMeUJBOUtkNEszVEI4WEM2VGhkalRSQ3NpU3hDaUtTZ1E5SndFdXZBRDVKdFRLbU1rcjBzaHNFQTYvelFMVTRVWW1IYyt4VUdDeUlCZTJ3OWgxWE56MHBNNVR3bE5KTmVtcXd5KzBKR1BteFNrVnE3Kzl2QzVGZ3lDeCtQZmYxY2FsZzFPb1Q4b1pheDBucDVSTDVlaGRRNWhVa0tvZ1gzZUY5QkxYQkFZOVVaSkovWGNiV2U4cU9xL0NvcjJVOVdTUEFDbTdrM1d3ZUpQY0hJcEF3S3RuczVpcm5KUU0xUVdUZngzWVZyaVFKU21oU3dhZjdTMmRMcWZUUVBmWHJ0dzhjSXRpWmlYRUduRFA2UDFjTVRRNGhNR1ZuZkNmNjU2aVNEWC93azNOWVVuRHEzV1hNS3Z2VHdEbjJGc1ZNellsVkpscTYzRUxPakMrYVdSZ3pQcWJrYlpaSGxUZ0xDcCs2Q0JvWHB5N0NTMjdRZi81b1plOEE2NmpZU0FqUU9QMWpyNTU2UTRMUXFDdFhpWjdhMHA0aVg4VzVySDQ0aW9yaEhoZTRjMk5raXJHSHBxTzl5SXVGcGVSblVIaHhnZVJPWlBWRXlER2NKZSt2Um1sVWZIeGpkQ2JwSmtuRmNKaEJHMzZINzJNTkZtb2ZFR25DdWk1YmJETno0TlVYZzVtNGhNVE1PMDErQjAzd1dPU0JSOEZtR1V1a2N6dTZMMk1udUtKb3RuNzRTT1JWZUkxbERoQUJRQmRkVCtwZUVOeXNrOTJIcUllZDEzOVZxNjNadlF4R01tbHE5WFNtZDhDSmlMNWo3YUxDK0FrMVNvWkJZRTFGTVFOM1YwQnhGVGlZRlFYVUhOL0xXZGZQZGQrRXA2RWplUFlHblM3OWVUNjNPUXdZV0JFV2NxZzJzcXJ4UnBrUktVb2locFRxY3Z4K2wwYXF0TVRvN2RLQ2w2OUFlYk4xZjdiVzR2d0dmTEdDZ1NmQXNOMjJxaU1wdHJjS3VqcEpMcXlRSW55YWRTdWpEbmlzb3h4VTgzbVRsV05JMGxyVkhkcDBkeWo3ajQ5M3oyLzVGblJaVHZ3YVErWTBRUkNKUWZZVVhSR0ZHZnBnM2QyZWNTbHlpYTFxOWNpSEFlYzVtR1NwTkVPd2YwQXdUbXp4aVl4anF6cmlZVnIxd1ZpZ3V5V0MrVHBCOTVuaUsxQ2VmK1QzOWg4OENCSEdxd3NWVXhHbTlqT2hVWFFPOUlkdDNVWCtkQW9RY2tWYUNOVmVsQy90bFdWbmkxcFZVcXY5OE55dmlZZlR1REdjM05CWUhIVk1iNitNSVp2NXhXTXE4YmtQSG5GM0N2aTNYeDRzWkhmU25ZWVB1UFpCTjlPRGtxV202dFRadVZoTW14c2FUQldWZzlwdE1LZjcvQTJ1R0pvQ01YZ0Noa0N2VlB2VTlKSzB4endvbmxEZzdrelNtY1pCVW9GVHN0czY0RThOUjRQcmY5RndyMXRKa1BDRWFnL0hadTNUZVB6T1pHNnRnVys4VEUvVzNzR21iSzVDS0djVjNydmxScjhSQ2JGLzBOdHNKd29Cb1BsVmhjLzR3Nk41anU5eGRBYlg0SGZQdkw0emszVU1tTGpBeDFvTGQxdm5VK3djMllvc1RtemdNeWhLV0FMK3d6Q0hxM1RvNm5qUzJHMEhDYy9zUFEyNnJ5NEt2M1JDNlRBdXFNcGFOSlF0a0JZbzBldmVtTU5uM0pwc3VHMFBKVnFkZ0RMb0sxb3RzMEZsem5TaWk2YmVmcWdoREJTTW5kQXFFNGtNNUxJei9uRkhnTDhZMHpMRmErUTllNFdOaTBvdGoxYXo5WGd0WHJCKzFCbGtXZHJ5U1JTUUNQMVhjZng4Vi9say8xRUFkRmFpZVZ1QmRCSTlGcjdJN0E5eE4zY1BFd2IvZ3cxeHN5U1lHYm90T1RCSkFWd0pYc3dXdHdzM0FXaDZJaktiUW84QWUycXFQWE5RbVVnZjY1aXJpWEpXMU9lL2gzVjdiZzU5R0tIMFVUbngyNXNwKzRkaXdCQVhpbUdJNHFYTWJqQUZkWFhqZFJaNmRIYy9QbEI4SDJBZUt2c1djZjA1TzVyTHc5ZU5qMjNLcHpCdFhmZXZPWmNZM3pLRWFHQjA3ZmJ6TzZBajBQL2IwNFdsK09aZTB3N0w3bWhYREo1Zi9RWVBGcHVMS1JTWFlWTG1SWFFtVDQxUWU1ZmgrMG1TUDFUWWw3K0hnRGxkNWtoMVk5NHRMUFhrclhrQ3ZENFo0YU0zWTVUYjByTEVTZW4vTWZheHlZcFNaWU10M2NFK25xTkQyeVF3ajVIbE41Z1hQcnlxdHBqajNWUDN1djY5OS9XSUNxdStiQUNYREcwSUJCQ01QVkZPeEgzeFFmYkVUcFIvVnNJelA5aEk1MnBSNDJnRSt3M0kudmlEZGp0NnNnVmlETkUtSC1mcVZJeGhNUTJUM2tBejJ1dEJnUTRSM2FKSXBEallvbUVQQUxrcWlyei1Cai1raUxXbmtiYWFib3NCSVNycURBd3NMaEE=","_eventId":"submit","geolocation":""}</t>
+  </si>
+  <si>
+    <t>token=CcsyunPortalToken=(.*?), paas</t>
+  </si>
+  <si>
     <t>添加任务接口</t>
   </si>
   <si>
     <t>http://m8cmp-sdpm8-gateway-tenant.tongfuyun-test.com/ccsyun/task</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>{"Accept":"application/json, text/plain, */*","Referer":"http://console.coo.tongfuyun-test.com/","Accept-Language":"zh-CN,zh;q=0.9","Origin":"http://console.coo.tongfuyun-test.com","Upgrade-Insecure-Requests":"1","Content-Type":"application/json; charset=UTF-8","M8-Menu-Id":"9994","User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36","M8-Application-Code":"COO_WORKBENCH"}</t>
+    <t>{"Accept":"application/json, text/plain, */*","Referer":"http://console.coo.tongfuyun-test.com/","Accept-Language":"zh-CN,zh;q=0.9","Origin":"http://console.coo.tongfuyun-test.com","Upgrade-Insecure-Requests":"1","Content-Type":"application/json; charset=UTF-8","M8-Menu-Id":"9994","User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/63.0.3239.132 Safari/537.36","M8-Application-Code":"COO_WORKBENCH","Authorization":"Bearer ${token}"}</t>
   </si>
   <si>
     <t>{"title":"rcp13o","assignto":"xiaofei02","milestone_id":321,"tasklvl":"level3","tasktype":"demand","project_id":647,"due_date":"2019-12-1","description":""}</t>
+  </si>
+  <si>
+    <t>包含</t>
+  </si>
+  <si>
+    <t>保存出现异常. 任务或=$.message</t>
   </si>
 </sst>
 </file>
@@ -78,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -119,8 +146,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,51 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,40 +243,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,14 +277,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,31 +297,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,39 +502,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +541,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +573,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,145 +611,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -730,29 +757,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1073,181 +1100,184 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="34.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="43.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="10" max="11" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.22222222222222" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.2222222222222" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.8888888888889" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.6666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.66666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.1111111111111" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.33333333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.8888888888889" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.66666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="10" max="11" width="20.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="13" width="16.7777777777778" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.22222222222222" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.2222222222222" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.8888888888889" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" ht="71" customHeight="1" spans="1:14">
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="130" customHeight="1" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" ht="55.05" customHeight="1" spans="8:8">
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" ht="52.05" customHeight="1" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" ht="60" customHeight="1" spans="2:8">
-      <c r="B5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" ht="60" customHeight="1" spans="1:9">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="60" customHeight="1" spans="2:4">
-      <c r="B7" s="3"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" ht="60" customHeight="1" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" ht="60" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" ht="60" customHeight="1" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" ht="60" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" ht="60" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" ht="60" customHeight="1" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" ht="60" customHeight="1" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" ht="60" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" ht="60" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="D16" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="71" customHeight="1" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="55.05" customHeight="1"/>
+    <row r="5" ht="52.05" customHeight="1" spans="1:2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="2:2">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="2:2">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" ht="60" customHeight="1" spans="2:2">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" ht="60" customHeight="1" spans="2:2">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" ht="60" customHeight="1" spans="2:2">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" ht="60" customHeight="1" spans="2:2">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" ht="60" customHeight="1" spans="2:2">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" ht="60" customHeight="1" spans="2:2">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" ht="60" customHeight="1" spans="2:2">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" ht="60" customHeight="1" spans="2:2">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" ht="60" customHeight="1" spans="2:2">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" ht="60" customHeight="1" spans="2:2">
+      <c r="B17" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C4:C1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C5:C1048576">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M3:M1048576">
       <formula1>"mysql,redis"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3">
+      <formula1>"相等,包含"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://m8cmp-sdpm8-gateway-tenant.tongfuyun-test.com/ccsyun/task"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://m8cmp-sdpm8-gateway-tenant.tongfuyun-test.com/ccsyun/task"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://m8-cas-tenant-m8cmp-sdp.tongfuyun-test.com/cas/login?service=http%3A%2F%2Fconsole.coo.tongfuyun-test.com%2Fcas%2Fvalidate&amp;sn=/" tooltip="https://m8-cas-tenant-m8cmp-sdp.tongfuyun-test.com/cas/login?service=http%3A%2F%2Fconsole.coo.tongfuyun-test.com%2Fcas%2Fvalidate&amp;sn=/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/conf/case.xlsx
+++ b/conf/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="15395" windowHeight="7812"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>descrption</t>
   </si>
@@ -79,6 +79,12 @@
     <t>{"loginType":"","username":"xiaofei02","password":"13154eff38cce7aeccc729d817f2014b","verificationCode":"","execution":"b215435a-7a05-4af9-9b49-7ebd7ede77ed_ZXlKaGJHY2lPaUpJVXpVeE1pSjkuV00zWFJIaWxkUFZLcVNCbkJYUmFsTVU4ek5rMnRUOXowa1VoVnhGK0lQSnNGSXdYNlM4TDFNTHBBcytxOHQ0aG5JYWxjcDdkV1lOQWhQVW0vM2pBTmgwcVhWOGlmQmtsQjFYekpmZml0aU1XTHM1RmlZQWFsMFY4U2JTV1JaM3g4eklkc2lHd2RDSjR5bTR0eUVrZ0ZlUXZxRGFZcWdYSGI0amVYL0l0RkJzZVNmMVZiaGcwTk83bHNqUWczUk9YZ1k1THB6eERlb0lLTEJxcWtLQno3eUI4djEvSisxN1VPd2lDRXZPK1laQ1kzK1F3akhnWVdpRk5Zc0I2MStBRUoxbTlSeFRDOFNaazl0YlBKMGtuMCsweGxBZHo1UE5DTFpCQ09naU9TZHhGalJZcGtoanNiaFhuYnFvcFJQVEpOUkdxS25VTmg1ODRpNVRhcHRnRjBCQ0Nnb2wyLzQ1eXgzV3ppL1gyZHdTcnlUMFJvNlhCNE1hRUY4elBXSmVVQlJJanQyN0UxbjRTcHQwVWV1U1hZUDlqdG9zaUtsVzlPVTNMdUkzYm02eGlZa0Yvbzdrd1Y3S2dqZ3JmWkF2MVRvNEQ0dXBxUHdLb091QjluMGdsYWZWeTdYa1Nva1VmZ3JhL3haWU12RFA3VWhwYU1WVk5TeTEwUFNURWk3bUxPZGsrRTJpRzhzcmhjWlc4RmU4WndpVEtVanVjdU93WENXSUpZck8wYjgxZEZGdHpDT0VEY0JQU0U1MlZXWFFxbTNTUWlUTEZ1eEVqUjVkU2hsWG80NkhaaXJKeE9lZWIyVEhwdVBPUWs2MEYrRzk2ZUNKZXNaVkQvZUZ6UzFKdnU1aFI4OG1aNElyMGJUM3R6K0Rkd3E1WjVOdEFWS05Ic2ZHN0k3ZkdERjBYeGR1TnhmQ3l5Qk9ZRU9LZHZvNWszU3J4V05rUlY5MEJaVkFGMTlHbm1aM1BjbUNtd1c1RzdNVFZoZXVRWnVtVkdTcVBYK01wY0dzKzd0L2ZPeDFVRkN4aHN3dkZOeWUzeUt5QXduRnorQTNPRXZuNDJDVFJUYi82bjQ0L0o4SFJPT1dHb1dtYWg1VVhTeGhQK1EvNEtBQWw4RHQzM1M2U0d1MGl1MkkxR3MxL0wxRHFwWFRvSFZvKzVqY3hXTkZKZytzVmVqNTlyMzJTVnBPWVZPWkNjb2FreTJzTGVoVVFjOUlicjBsTWp0NmpKWlpNK2s0aWhYalMvWWFMYWpBY3dOd1BxYThFNFZKcW1YS010SEZ4WDlVV1F3OUI3RHM0WG9sT3htWFMwV3N3cTVYK1loaXZrYVcxL1NhWllkWWxMNVhEb2lkN2J0TWJqLzBBdDBJQlY3S2JDNndxbUcvcXJDK2hPZWRkTzFOUXlDbWpwNjNvUkhrQ1lKNFV0RzhvS0FwV3ZQSWgwd3plZTR2eTFwRklEazVoYkl0ZzZFN0hDREw5MUVoMm42MlZQeTNiL0pBOVd5aStNWCs3YTFDNkRzN2Y0V2JZZTRteVpmc3A1NXhEd2VYNjNnTUthR2FWZ1o2TmZrelRzNnNZdG5VcklZR2dxUUxKa255MkY4TVhQeWdUSUtXdVo3dk9heitJWGN4Z2lZQzZ1MDI4MWtDeVNvelUydUVUUmdQUDFBa2t2cGZxSXJMSDZRZDRVSjVaUlkzRnYvOEw2ejlrVUVsOFhmQjhuTWRUMzIxNll6YzJVaEVGeWFubE00TGt5elhORXBKT3pIeEZZSGx5YTkxSEVOK2lwc1pDOTlEWkdURFZXVklWT3dMbDNoeHRRTDM0SFA3TjJtNkJ3Mis1N2h0enhMeUJBOUtkNEszVEI4WEM2VGhkalRSQ3NpU3hDaUtTZ1E5SndFdXZBRDVKdFRLbU1rcjBzaHNFQTYvelFMVTRVWW1IYyt4VUdDeUlCZTJ3OWgxWE56MHBNNVR3bE5KTmVtcXd5KzBKR1BteFNrVnE3Kzl2QzVGZ3lDeCtQZmYxY2FsZzFPb1Q4b1pheDBucDVSTDVlaGRRNWhVa0tvZ1gzZUY5QkxYQkFZOVVaSkovWGNiV2U4cU9xL0NvcjJVOVdTUEFDbTdrM1d3ZUpQY0hJcEF3S3RuczVpcm5KUU0xUVdUZngzWVZyaVFKU21oU3dhZjdTMmRMcWZUUVBmWHJ0dzhjSXRpWmlYRUduRFA2UDFjTVRRNGhNR1ZuZkNmNjU2aVNEWC93azNOWVVuRHEzV1hNS3Z2VHdEbjJGc1ZNellsVkpscTYzRUxPakMrYVdSZ3pQcWJrYlpaSGxUZ0xDcCs2Q0JvWHB5N0NTMjdRZi81b1plOEE2NmpZU0FqUU9QMWpyNTU2UTRMUXFDdFhpWjdhMHA0aVg4VzVySDQ0aW9yaEhoZTRjMk5raXJHSHBxTzl5SXVGcGVSblVIaHhnZVJPWlBWRXlER2NKZSt2Um1sVWZIeGpkQ2JwSmtuRmNKaEJHMzZINzJNTkZtb2ZFR25DdWk1YmJETno0TlVYZzVtNGhNVE1PMDErQjAzd1dPU0JSOEZtR1V1a2N6dTZMMk1udUtKb3RuNzRTT1JWZUkxbERoQUJRQmRkVCtwZUVOeXNrOTJIcUllZDEzOVZxNjNadlF4R01tbHE5WFNtZDhDSmlMNWo3YUxDK0FrMVNvWkJZRTFGTVFOM1YwQnhGVGlZRlFYVUhOL0xXZGZQZGQrRXA2RWplUFlHblM3OWVUNjNPUXdZV0JFV2NxZzJzcXJ4UnBrUktVb2locFRxY3Z4K2wwYXF0TVRvN2RLQ2w2OUFlYk4xZjdiVzR2d0dmTEdDZ1NmQXNOMjJxaU1wdHJjS3VqcEpMcXlRSW55YWRTdWpEbmlzb3h4VTgzbVRsV05JMGxyVkhkcDBkeWo3ajQ5M3oyLzVGblJaVHZ3YVErWTBRUkNKUWZZVVhSR0ZHZnBnM2QyZWNTbHlpYTFxOWNpSEFlYzVtR1NwTkVPd2YwQXdUbXp4aVl4anF6cmlZVnIxd1ZpZ3V5V0MrVHBCOTVuaUsxQ2VmK1QzOWg4OENCSEdxd3NWVXhHbTlqT2hVWFFPOUlkdDNVWCtkQW9RY2tWYUNOVmVsQy90bFdWbmkxcFZVcXY5OE55dmlZZlR1REdjM05CWUhIVk1iNitNSVp2NXhXTXE4YmtQSG5GM0N2aTNYeDRzWkhmU25ZWVB1UFpCTjlPRGtxV202dFRadVZoTW14c2FUQldWZzlwdE1LZjcvQTJ1R0pvQ01YZ0Noa0N2VlB2VTlKSzB4endvbmxEZzdrelNtY1pCVW9GVHN0czY0RThOUjRQcmY5RndyMXRKa1BDRWFnL0hadTNUZVB6T1pHNnRnVys4VEUvVzNzR21iSzVDS0djVjNydmxScjhSQ2JGLzBOdHNKd29Cb1BsVmhjLzR3Nk41anU5eGRBYlg0SGZQdkw0emszVU1tTGpBeDFvTGQxdm5VK3djMllvc1RtemdNeWhLV0FMK3d6Q0hxM1RvNm5qUzJHMEhDYy9zUFEyNnJ5NEt2M1JDNlRBdXFNcGFOSlF0a0JZbzBldmVtTU5uM0pwc3VHMFBKVnFkZ0RMb0sxb3RzMEZsem5TaWk2YmVmcWdoREJTTW5kQXFFNGtNNUxJei9uRkhnTDhZMHpMRmErUTllNFdOaTBvdGoxYXo5WGd0WHJCKzFCbGtXZHJ5U1JTUUNQMVhjZng4Vi9say8xRUFkRmFpZVZ1QmRCSTlGcjdJN0E5eE4zY1BFd2IvZ3cxeHN5U1lHYm90T1RCSkFWd0pYc3dXdHdzM0FXaDZJaktiUW84QWUycXFQWE5RbVVnZjY1aXJpWEpXMU9lL2gzVjdiZzU5R0tIMFVUbngyNXNwKzRkaXdCQVhpbUdJNHFYTWJqQUZkWFhqZFJaNmRIYy9QbEI4SDJBZUt2c1djZjA1TzVyTHc5ZU5qMjNLcHpCdFhmZXZPWmNZM3pLRWFHQjA3ZmJ6TzZBajBQL2IwNFdsK09aZTB3N0w3bWhYREo1Zi9RWVBGcHVMS1JTWFlWTG1SWFFtVDQxUWU1ZmgrMG1TUDFUWWw3K0hnRGxkNWtoMVk5NHRMUFhrclhrQ3ZENFo0YU0zWTVUYjByTEVTZW4vTWZheHlZcFNaWU10M2NFK25xTkQyeVF3ajVIbE41Z1hQcnlxdHBqajNWUDN1djY5OS9XSUNxdStiQUNYREcwSUJCQ01QVkZPeEgzeFFmYkVUcFIvVnNJelA5aEk1MnBSNDJnRSt3M0kudmlEZGp0NnNnVmlETkUtSC1mcVZJeGhNUTJUM2tBejJ1dEJnUTRSM2FKSXBEallvbUVQQUxrcWlyei1Cai1raUxXbmtiYWFib3NCSVNycURBd3NMaEE=","_eventId":"submit","geolocation":""}</t>
   </si>
   <si>
+    <t>包含</t>
+  </si>
+  <si>
+    <t>请添加资源配置文件=throw Error(.*?)\)</t>
+  </si>
+  <si>
     <t>token=CcsyunPortalToken=(.*?), paas</t>
   </si>
   <si>
@@ -94,10 +100,25 @@
     <t>{"title":"rcp13o","assignto":"xiaofei02","milestone_id":321,"tasklvl":"level3","tasktype":"demand","project_id":647,"due_date":"2019-12-1","description":""}</t>
   </si>
   <si>
-    <t>包含</t>
-  </si>
-  <si>
-    <t>保存出现异常. 任务或=$.message</t>
+    <t>相等</t>
+  </si>
+  <si>
+    <t>保存出现异常. 任务或BUG名称重复名称!=$.message</t>
+  </si>
+  <si>
+    <t>获取菜单列表接口</t>
+  </si>
+  <si>
+    <t>http://m8cmp-sdpm8-gateway-tenant.tongfuyun-test.com/admin/menu/code/COO_WORKBENCH/navigation</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"Authorization":"Bearer ${token}"}</t>
+  </si>
+  <si>
+    <t>success=$.msg</t>
   </si>
 </sst>
 </file>
@@ -105,9 +126,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -130,14 +151,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -146,16 +159,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -166,6 +215,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,12 +235,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -199,84 +280,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,49 +318,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,133 +456,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,50 +523,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +551,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -585,6 +571,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,6 +615,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,137 +644,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,23 +784,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1102,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1116,70 +1134,70 @@
     <col min="6" max="6" width="43.8888888888889" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.3333333333333" style="2" customWidth="1"/>
     <col min="8" max="8" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.3333333333333" style="3" customWidth="1"/>
     <col min="10" max="11" width="20.6666666666667" style="2" customWidth="1"/>
     <col min="12" max="13" width="16.7777777777778" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.22222222222222" style="2" customWidth="1"/>
-    <col min="15" max="15" width="26.2222222222222" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.8888888888889" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.44444444444444" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.6666666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.5555555555556" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="130" customHeight="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="130" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1193,85 +1211,109 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" ht="71" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" ht="55.05" customHeight="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="55.05" customHeight="1" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="5" ht="52.05" customHeight="1" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" ht="60" customHeight="1" spans="2:2">
-      <c r="B6" s="6"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" ht="60" customHeight="1" spans="2:2">
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" ht="60" customHeight="1" spans="2:2">
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" ht="60" customHeight="1" spans="2:2">
-      <c r="B9" s="6"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" ht="60" customHeight="1" spans="2:2">
-      <c r="B10" s="6"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" ht="60" customHeight="1" spans="2:2">
-      <c r="B11" s="6"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" ht="60" customHeight="1" spans="2:2">
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" ht="60" customHeight="1" spans="2:2">
-      <c r="B13" s="6"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" ht="60" customHeight="1" spans="2:2">
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" ht="60" customHeight="1" spans="2:2">
-      <c r="B15" s="6"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" ht="60" customHeight="1" spans="2:2">
-      <c r="B16" s="6"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" ht="60" customHeight="1" spans="2:2">
-      <c r="B17" s="6"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C5:C1048576">
       <formula1>"POST,GET,UPLOAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M3:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M3:M1048576">
       <formula1>"mysql,redis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4">
       <formula1>"相等,包含"</formula1>
     </dataValidation>
   </dataValidations>
